--- a/3-tecnologia/3-proyecto/Proyectos.xlsx
+++ b/3-tecnologia/3-proyecto/Proyectos.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
+    <sheet name="Estado" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>Producción</t>
   </si>
@@ -161,6 +162,54 @@
   </si>
   <si>
     <t>http://agenda.cck.gob.ar:3000/agenda</t>
+  </si>
+  <si>
+    <t>Solicitante</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Gabriel Diaz</t>
+  </si>
+  <si>
+    <t>Virginia Diaz</t>
+  </si>
+  <si>
+    <t>Alberto Martinez</t>
+  </si>
+  <si>
+    <t>Analia Bruno</t>
+  </si>
+  <si>
+    <t>Juliana Consigli</t>
+  </si>
+  <si>
+    <t>Alcance Inicial</t>
+  </si>
+  <si>
+    <t>PROD may-2016</t>
+  </si>
+  <si>
+    <t>PROD abr-2016</t>
+  </si>
+  <si>
+    <t>PROD jun-2016</t>
+  </si>
+  <si>
+    <t>Fuera Alcance</t>
+  </si>
+  <si>
+    <t>PROD mar-2016</t>
+  </si>
+  <si>
+    <t>No CTO</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
   </si>
 </sst>
 </file>
@@ -184,14 +233,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -199,7 +248,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,7 +256,7 @@
     </font>
     <font>
       <u/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -235,150 +284,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="3"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -389,20 +327,21 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="0"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -414,6 +353,281 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -426,20 +640,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla3" displayName="Tabla3" ref="A1:K12" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K12"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Sistema" dataDxfId="10"/>
-    <tableColumn id="10" name="Cliente" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla3" displayName="Tabla3" ref="A1:J12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:J12"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Sistema" dataDxfId="23"/>
+    <tableColumn id="10" name="Cliente" dataDxfId="22"/>
+    <tableColumn id="7" name="Estado" dataDxfId="21"/>
+    <tableColumn id="4" name="Prd" dataDxfId="20"/>
+    <tableColumn id="12" name="Des" dataDxfId="19"/>
+    <tableColumn id="11" name="ACP" dataDxfId="18"/>
+    <tableColumn id="3" name="Arq" dataDxfId="17"/>
+    <tableColumn id="13" name="Fnc" dataDxfId="16"/>
+    <tableColumn id="5" name="Herramienta Principal" dataDxfId="15"/>
+    <tableColumn id="8" name="Dirección" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla33" displayName="Tabla33" ref="A1:J12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:J12"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Sistema" dataDxfId="11"/>
+    <tableColumn id="6" name="Alcance Inicial" dataDxfId="0"/>
+    <tableColumn id="10" name="Cliente" dataDxfId="10"/>
+    <tableColumn id="2" name="Solicitante" dataDxfId="9"/>
     <tableColumn id="7" name="Estado" dataDxfId="8"/>
     <tableColumn id="9" name="Av" dataDxfId="7"/>
-    <tableColumn id="4" name="Prd" dataDxfId="6"/>
-    <tableColumn id="12" name="Des" dataDxfId="5"/>
-    <tableColumn id="11" name="ACP" dataDxfId="4"/>
-    <tableColumn id="3" name="Arq" dataDxfId="3"/>
-    <tableColumn id="13" name="Fnc" dataDxfId="2"/>
-    <tableColumn id="5" name="Herramienta Principal" dataDxfId="1"/>
-    <tableColumn id="8" name="Dirección" dataDxfId="0"/>
+    <tableColumn id="12" name="Pedido" dataDxfId="6"/>
+    <tableColumn id="11" name="Inicio" dataDxfId="5"/>
+    <tableColumn id="4" name="Prototipo" dataDxfId="4"/>
+    <tableColumn id="3" name="Producción" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,25 +964,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -761,31 +995,28 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -795,32 +1026,29 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -830,32 +1058,29 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.5</v>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -865,32 +1090,29 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -900,32 +1122,29 @@
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -935,29 +1154,26 @@
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.1</v>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -967,29 +1183,26 @@
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.8</v>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -999,32 +1212,29 @@
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.9</v>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1034,20 +1244,17 @@
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1057,17 +1264,14 @@
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.1</v>
+      <c r="I10" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1077,14 +1281,11 @@
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1094,29 +1295,26 @@
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1"/>
-    <hyperlink ref="K8" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="K3" r:id="rId4"/>
-    <hyperlink ref="K12" r:id="rId5"/>
-    <hyperlink ref="K9" r:id="rId6"/>
-    <hyperlink ref="K6" r:id="rId7"/>
-    <hyperlink ref="K7" r:id="rId8"/>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J8" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="J12" r:id="rId5"/>
+    <hyperlink ref="J9" r:id="rId6"/>
+    <hyperlink ref="J6" r:id="rId7"/>
+    <hyperlink ref="J7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -1124,4 +1322,404 @@
     <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42387</v>
+      </c>
+      <c r="H2" s="7">
+        <v>42388</v>
+      </c>
+      <c r="I2" s="7">
+        <v>42436</v>
+      </c>
+      <c r="J2" s="7">
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>42419</v>
+      </c>
+      <c r="H3" s="7">
+        <v>42430</v>
+      </c>
+      <c r="I3" s="7">
+        <v>42461</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>42384</v>
+      </c>
+      <c r="H4" s="7">
+        <v>42387</v>
+      </c>
+      <c r="I4" s="7">
+        <v>42389</v>
+      </c>
+      <c r="J4" s="7">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>42466</v>
+      </c>
+      <c r="H5" s="7">
+        <v>42471</v>
+      </c>
+      <c r="I5" s="7">
+        <v>42479</v>
+      </c>
+      <c r="J5" s="7">
+        <v>42492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>42496</v>
+      </c>
+      <c r="H6" s="7">
+        <v>42506</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="7">
+        <v>42496</v>
+      </c>
+      <c r="H7" s="7">
+        <v>42509</v>
+      </c>
+      <c r="I7" s="7">
+        <v>42514</v>
+      </c>
+      <c r="J7" s="7">
+        <v>42550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="7">
+        <v>42415</v>
+      </c>
+      <c r="H8" s="7">
+        <v>42416</v>
+      </c>
+      <c r="I8" s="7">
+        <v>42432</v>
+      </c>
+      <c r="J8" s="7">
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>42431</v>
+      </c>
+      <c r="H9" s="7">
+        <v>42465</v>
+      </c>
+      <c r="I9" s="7">
+        <v>42507</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>42396</v>
+      </c>
+      <c r="H10" s="7">
+        <v>42396</v>
+      </c>
+      <c r="I10" s="7">
+        <v>42398</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>42604</v>
+      </c>
+      <c r="H11" s="7">
+        <v>42607</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>42579</v>
+      </c>
+      <c r="H12" s="7">
+        <v>42583</v>
+      </c>
+      <c r="I12" s="7">
+        <v>42591</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/3-tecnologia/3-proyecto/Proyectos.xlsx
+++ b/3-tecnologia/3-proyecto/Proyectos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
   <si>
     <t>Producción</t>
   </si>
@@ -304,7 +304,121 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -312,6 +426,20 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -359,45 +487,45 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -405,26 +533,11 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -432,36 +545,28 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <name val="Calibri"/>
@@ -512,122 +617,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -640,38 +629,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla3" displayName="Tabla3" ref="A1:J12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:J12"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Sistema" dataDxfId="23"/>
-    <tableColumn id="10" name="Cliente" dataDxfId="22"/>
-    <tableColumn id="7" name="Estado" dataDxfId="21"/>
-    <tableColumn id="4" name="Prd" dataDxfId="20"/>
-    <tableColumn id="12" name="Des" dataDxfId="19"/>
-    <tableColumn id="11" name="ACP" dataDxfId="18"/>
-    <tableColumn id="3" name="Arq" dataDxfId="17"/>
-    <tableColumn id="13" name="Fnc" dataDxfId="16"/>
-    <tableColumn id="5" name="Herramienta Principal" dataDxfId="15"/>
-    <tableColumn id="8" name="Dirección" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla3" displayName="Tabla3" ref="A1:I12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:I12"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Sistema" dataDxfId="20"/>
+    <tableColumn id="7" name="Estado" dataDxfId="19"/>
+    <tableColumn id="4" name="Prd" dataDxfId="18"/>
+    <tableColumn id="12" name="Des" dataDxfId="17"/>
+    <tableColumn id="11" name="ACP" dataDxfId="16"/>
+    <tableColumn id="3" name="Arq" dataDxfId="15"/>
+    <tableColumn id="13" name="Fnc" dataDxfId="14"/>
+    <tableColumn id="5" name="Herramienta Principal" dataDxfId="13"/>
+    <tableColumn id="8" name="Dirección" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla33" displayName="Tabla33" ref="A1:J12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla33" displayName="Tabla33" ref="A1:J12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J12"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Sistema" dataDxfId="11"/>
-    <tableColumn id="6" name="Alcance Inicial" dataDxfId="0"/>
-    <tableColumn id="10" name="Cliente" dataDxfId="10"/>
-    <tableColumn id="2" name="Solicitante" dataDxfId="9"/>
-    <tableColumn id="7" name="Estado" dataDxfId="8"/>
-    <tableColumn id="9" name="Av" dataDxfId="7"/>
-    <tableColumn id="12" name="Pedido" dataDxfId="6"/>
-    <tableColumn id="11" name="Inicio" dataDxfId="5"/>
-    <tableColumn id="4" name="Prototipo" dataDxfId="4"/>
-    <tableColumn id="3" name="Producción" dataDxfId="3"/>
+    <tableColumn id="1" name="Sistema" dataDxfId="9"/>
+    <tableColumn id="6" name="Alcance Inicial" dataDxfId="8"/>
+    <tableColumn id="10" name="Cliente" dataDxfId="7"/>
+    <tableColumn id="2" name="Solicitante" dataDxfId="6"/>
+    <tableColumn id="7" name="Estado" dataDxfId="5"/>
+    <tableColumn id="9" name="Av" dataDxfId="4"/>
+    <tableColumn id="12" name="Pedido" dataDxfId="3"/>
+    <tableColumn id="11" name="Inicio" dataDxfId="2"/>
+    <tableColumn id="4" name="Prototipo" dataDxfId="1"/>
+    <tableColumn id="3" name="Producción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -964,73 +952,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="2"/>
+    <col min="2" max="2" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>46</v>
@@ -1038,31 +1022,28 @@
       <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>46</v>
@@ -1070,31 +1051,28 @@
       <c r="G3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>46</v>
@@ -1102,31 +1080,28 @@
       <c r="G4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>46</v>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -1134,89 +1109,80 @@
       <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
@@ -1224,97 +1190,82 @@
       <c r="G8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="I10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
-    <hyperlink ref="J8" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="J12" r:id="rId5"/>
-    <hyperlink ref="J9" r:id="rId6"/>
-    <hyperlink ref="J6" r:id="rId7"/>
-    <hyperlink ref="J7" r:id="rId8"/>
+    <hyperlink ref="I5" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="I12" r:id="rId5"/>
+    <hyperlink ref="I9" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7"/>
+    <hyperlink ref="I7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -1328,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
